--- a/equipmentbase.xlsx
+++ b/equipmentbase.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>

--- a/equipmentbase.xlsx
+++ b/equipmentbase.xlsx
@@ -63,7 +63,7 @@
             <charset val="134"/>
           </rPr>
           <t>类型
-武器</t>
+武器主手</t>
         </r>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>衣服</t>
+          <t>武器副手</t>
         </r>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>饰品</t>
+          <t>武器单手</t>
         </r>
         <r>
           <rPr>
@@ -112,7 +112,67 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3</t>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>武器双手</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>衣服</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饰品</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
         </r>
       </text>
     </comment>
@@ -579,7 +639,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/equipmentbase.xlsx
+++ b/equipmentbase.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>EQUIP_DESC_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,19 +640,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,34 +669,37 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -709,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -718,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -735,8 +742,11 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -753,34 +763,37 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -797,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -806,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -818,9 +831,12 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
     </row>

--- a/equipmentbase.xlsx
+++ b/equipmentbase.xlsx
@@ -643,7 +643,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>

--- a/equipmentbase.xlsx
+++ b/equipmentbase.xlsx
@@ -643,7 +643,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -801,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>

--- a/equipmentbase.xlsx
+++ b/equipmentbase.xlsx
@@ -643,7 +643,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>0</v>

--- a/equipmentbase.xlsx
+++ b/equipmentbase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11340"/>
@@ -21,7 +21,7 @@
     <author>王朋</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,14 +268,29 @@
   </si>
   <si>
     <t>copper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,11 +367,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,6 +450,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -464,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,20 +661,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,84 +682,87 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>2000</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>50</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -745,84 +770,90 @@
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -834,9 +865,12 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
@@ -849,12 +883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,12 +896,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
